--- a/Team-Data/2008-09/11-6-2008-09.xlsx
+++ b/Team-Data/2008-09/11-6-2008-09.xlsx
@@ -811,10 +811,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
@@ -856,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT2" t="n">
         <v>4</v>
@@ -871,10 +871,10 @@
         <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -915,94 +915,94 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="J3" t="n">
-        <v>77.8</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M3" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.281</v>
+        <v>0.268</v>
       </c>
       <c r="O3" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="P3" t="n">
-        <v>31</v>
+        <v>31.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R3" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="S3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T3" t="n">
-        <v>49</v>
+        <v>46.4</v>
       </c>
       <c r="U3" t="n">
-        <v>19</v>
+        <v>18.4</v>
       </c>
       <c r="V3" t="n">
-        <v>18.8</v>
+        <v>18.4</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.8</v>
+        <v>24.6</v>
       </c>
       <c r="AA3" t="n">
         <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.5</v>
+        <v>92.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>5</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH3" t="n">
         <v>9</v>
@@ -1014,61 +1014,61 @@
         <v>22</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR3" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1175,13 +1175,13 @@
         <v>-6.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
         <v>22</v>
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1211,7 +1211,7 @@
         <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
         <v>16</v>
@@ -1226,10 +1226,10 @@
         <v>24</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW4" t="n">
         <v>20</v>
@@ -1241,16 +1241,16 @@
         <v>25</v>
       </c>
       <c r="AZ4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>27</v>
       </c>
       <c r="BC4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1279,160 +1279,160 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>31.5</v>
+        <v>32.2</v>
       </c>
       <c r="J5" t="n">
-        <v>83.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.378</v>
+        <v>0.4</v>
       </c>
       <c r="L5" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.377</v>
+        <v>0.384</v>
       </c>
       <c r="O5" t="n">
-        <v>21.8</v>
+        <v>24</v>
       </c>
       <c r="P5" t="n">
-        <v>26.3</v>
+        <v>29.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.829</v>
+        <v>0.805</v>
       </c>
       <c r="R5" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="S5" t="n">
-        <v>31.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>44</v>
+        <v>43.2</v>
       </c>
       <c r="U5" t="n">
-        <v>16</v>
+        <v>18.2</v>
       </c>
       <c r="V5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>24.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>90.5</v>
+        <v>94</v>
       </c>
       <c r="AC5" t="n">
-        <v>-5.8</v>
+        <v>-2</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
         <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
         <v>9</v>
       </c>
       <c r="AO5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP5" t="n">
         <v>7</v>
       </c>
-      <c r="AP5" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB5" t="n">
         <v>20</v>
       </c>
-      <c r="AW5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>22</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>26</v>
-      </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,160 +1461,160 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>35.8</v>
+        <v>34.4</v>
       </c>
       <c r="J6" t="n">
-        <v>77</v>
+        <v>75.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.464</v>
+        <v>0.457</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="M6" t="n">
-        <v>18.3</v>
+        <v>17.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.356</v>
+        <v>0.33</v>
       </c>
       <c r="O6" t="n">
-        <v>20.8</v>
+        <v>21.4</v>
       </c>
       <c r="P6" t="n">
-        <v>28.3</v>
+        <v>29.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R6" t="n">
-        <v>12.3</v>
+        <v>11.4</v>
       </c>
       <c r="S6" t="n">
         <v>32.8</v>
       </c>
       <c r="T6" t="n">
-        <v>45</v>
+        <v>44.2</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.2</v>
       </c>
       <c r="V6" t="n">
-        <v>14.3</v>
+        <v>15.8</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.5</v>
+        <v>23.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>22.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>98.8</v>
+        <v>96</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>6.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>9</v>
       </c>
       <c r="AI6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL6" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>10</v>
       </c>
       <c r="AM6" t="n">
         <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ6" t="n">
         <v>20</v>
       </c>
       <c r="AR6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AW6" t="n">
         <v>11</v>
       </c>
       <c r="AX6" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AY6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB6" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BC6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1721,13 +1721,13 @@
         <v>-0.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
@@ -1739,13 +1739,13 @@
         <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
         <v>16</v>
@@ -1754,25 +1754,25 @@
         <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR7" t="n">
         <v>24</v>
       </c>
       <c r="AS7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT7" t="n">
         <v>20</v>
       </c>
       <c r="AU7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV7" t="n">
         <v>2</v>
@@ -1793,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC7" t="n">
         <v>17</v>
@@ -1903,13 +1903,13 @@
         <v>-2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
         <v>22</v>
@@ -1921,7 +1921,7 @@
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>12</v>
@@ -1933,10 +1933,10 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP8" t="n">
         <v>4</v>
@@ -1948,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>5</v>
@@ -1963,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY8" t="n">
         <v>28</v>
@@ -1972,13 +1972,13 @@
         <v>28</v>
       </c>
       <c r="BA8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB8" t="n">
         <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -2085,7 +2085,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>1</v>
@@ -2115,25 +2115,25 @@
         <v>25</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ9" t="n">
         <v>3</v>
       </c>
       <c r="AR9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
         <v>19</v>
       </c>
       <c r="AT9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU9" t="n">
         <v>4</v>
@@ -2145,13 +2145,13 @@
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY9" t="n">
         <v>10</v>
       </c>
       <c r="AZ9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA9" t="n">
         <v>27</v>
@@ -2273,7 +2273,7 @@
         <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
         <v>16</v>
@@ -2291,7 +2291,7 @@
         <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM10" t="n">
         <v>4</v>
@@ -2300,13 +2300,13 @@
         <v>22</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
         <v>5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>1</v>
@@ -2318,22 +2318,22 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW10" t="n">
         <v>15</v>
       </c>
       <c r="AX10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY10" t="n">
         <v>27</v>
       </c>
       <c r="AZ10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>4</v>
@@ -2449,34 +2449,34 @@
         <v>7.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
         <v>5</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
         <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
         <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN11" t="n">
         <v>13</v>
@@ -2485,7 +2485,7 @@
         <v>3</v>
       </c>
       <c r="AP11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -2497,10 +2497,10 @@
         <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV11" t="n">
         <v>7</v>
@@ -2512,19 +2512,19 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2631,67 +2631,67 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
         <v>9</v>
       </c>
       <c r="AI12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>22</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>23</v>
-      </c>
       <c r="AK12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN12" t="n">
         <v>16</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AO12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP12" t="n">
         <v>12</v>
       </c>
-      <c r="AM12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>11</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR12" t="n">
         <v>26</v>
       </c>
       <c r="AS12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT12" t="n">
         <v>19</v>
       </c>
       <c r="AU12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW12" t="n">
         <v>11</v>
       </c>
       <c r="AX12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY12" t="n">
         <v>30</v>
@@ -2703,7 +2703,7 @@
         <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC12" t="n">
         <v>15</v>
@@ -2825,28 +2825,28 @@
         <v>29</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN13" t="n">
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
@@ -2855,16 +2855,16 @@
         <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS13" t="n">
         <v>21</v>
       </c>
       <c r="AT13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV13" t="n">
         <v>27</v>
@@ -2873,10 +2873,10 @@
         <v>23</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
         <v>29</v>
@@ -2917,10 +2917,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2932,73 +2932,73 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="J14" t="n">
-        <v>84</v>
+        <v>82.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.425</v>
+        <v>0.435</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="M14" t="n">
-        <v>19.3</v>
+        <v>17</v>
       </c>
       <c r="N14" t="n">
-        <v>0.414</v>
+        <v>0.456</v>
       </c>
       <c r="O14" t="n">
-        <v>29.7</v>
+        <v>26</v>
       </c>
       <c r="P14" t="n">
-        <v>40.3</v>
+        <v>34.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.736</v>
+        <v>0.748</v>
       </c>
       <c r="R14" t="n">
-        <v>14.7</v>
+        <v>13.3</v>
       </c>
       <c r="S14" t="n">
-        <v>38</v>
+        <v>38.5</v>
       </c>
       <c r="T14" t="n">
-        <v>52.7</v>
+        <v>51.8</v>
       </c>
       <c r="U14" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="V14" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.3</v>
+        <v>19.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB14" t="n">
-        <v>109</v>
+        <v>105.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -3010,34 +3010,34 @@
         <v>9</v>
       </c>
       <c r="AI14" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>6</v>
       </c>
       <c r="AK14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL14" t="n">
         <v>5</v>
       </c>
       <c r="AM14" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AO14" t="n">
         <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -3046,28 +3046,28 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV14" t="n">
         <v>15</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC14" t="n">
         <v>1</v>
@@ -3183,7 +3183,7 @@
         <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="n">
         <v>16</v>
@@ -3192,10 +3192,10 @@
         <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK15" t="n">
         <v>24</v>
@@ -3210,10 +3210,10 @@
         <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
@@ -3222,10 +3222,10 @@
         <v>17</v>
       </c>
       <c r="AS15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT15" t="n">
         <v>13</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>14</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3237,13 +3237,13 @@
         <v>18</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA15" t="n">
         <v>24</v>
@@ -3252,7 +3252,7 @@
         <v>28</v>
       </c>
       <c r="BC15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3359,13 +3359,13 @@
         <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
         <v>12</v>
@@ -3377,28 +3377,28 @@
         <v>6</v>
       </c>
       <c r="AJ16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK16" t="n">
         <v>10</v>
       </c>
-      <c r="AK16" t="n">
-        <v>11</v>
-      </c>
       <c r="AL16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN16" t="n">
         <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
         <v>6</v>
       </c>
       <c r="AQ16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3419,22 +3419,22 @@
         <v>1</v>
       </c>
       <c r="AX16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY16" t="n">
         <v>2</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB16" t="n">
         <v>4</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3463,160 +3463,160 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="H17" t="n">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="I17" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.462</v>
+        <v>0.464</v>
       </c>
       <c r="L17" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.322</v>
+        <v>0.342</v>
       </c>
       <c r="O17" t="n">
-        <v>17</v>
+        <v>16.6</v>
       </c>
       <c r="P17" t="n">
-        <v>25.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.673</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="R17" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="S17" t="n">
-        <v>32.5</v>
+        <v>29.8</v>
       </c>
       <c r="T17" t="n">
-        <v>43.8</v>
+        <v>41.4</v>
       </c>
       <c r="U17" t="n">
-        <v>24.8</v>
+        <v>24</v>
       </c>
       <c r="V17" t="n">
-        <v>17</v>
+        <v>17.4</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.5</v>
+        <v>25.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.8</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.8</v>
+        <v>97.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH17" t="n">
         <v>6</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>4</v>
       </c>
       <c r="AI17" t="n">
         <v>5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS17" t="n">
         <v>18</v>
       </c>
-      <c r="AS17" t="n">
-        <v>8</v>
-      </c>
       <c r="AT17" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AU17" t="n">
         <v>1</v>
       </c>
       <c r="AV17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX17" t="n">
         <v>24</v>
       </c>
-      <c r="AW17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>22</v>
-      </c>
       <c r="AY17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ17" t="n">
         <v>27</v>
       </c>
       <c r="BA17" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BB17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3723,13 +3723,13 @@
         <v>-3.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
         <v>22</v>
@@ -3744,7 +3744,7 @@
         <v>2</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
         <v>27</v>
@@ -3753,7 +3753,7 @@
         <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
         <v>19</v>
@@ -3762,16 +3762,16 @@
         <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR18" t="n">
         <v>22</v>
       </c>
       <c r="AS18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU18" t="n">
         <v>2</v>
@@ -3786,19 +3786,19 @@
         <v>12</v>
       </c>
       <c r="AY18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA18" t="n">
         <v>20</v>
       </c>
       <c r="BB18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3905,16 +3905,16 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
         <v>9</v>
@@ -3923,16 +3923,16 @@
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
         <v>18</v>
@@ -3944,7 +3944,7 @@
         <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR19" t="n">
         <v>19</v>
@@ -3959,7 +3959,7 @@
         <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW19" t="n">
         <v>11</v>
@@ -3980,7 +3980,7 @@
         <v>25</v>
       </c>
       <c r="BC19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -4087,16 +4087,16 @@
         <v>5.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4105,16 +4105,16 @@
         <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK20" t="n">
         <v>7</v>
       </c>
       <c r="AL20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN20" t="n">
         <v>2</v>
@@ -4123,10 +4123,10 @@
         <v>16</v>
       </c>
       <c r="AP20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
         <v>24</v>
@@ -4144,13 +4144,13 @@
         <v>11</v>
       </c>
       <c r="AW20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ20" t="n">
         <v>5</v>
@@ -4162,7 +4162,7 @@
         <v>8</v>
       </c>
       <c r="BC20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4269,13 +4269,13 @@
         <v>-7.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>12</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
         <v>12</v>
@@ -4284,7 +4284,7 @@
         <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ21" t="n">
         <v>3</v>
@@ -4299,16 +4299,16 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR21" t="n">
         <v>9</v>
@@ -4317,13 +4317,13 @@
         <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW21" t="n">
         <v>2</v>
@@ -4341,10 +4341,10 @@
         <v>28</v>
       </c>
       <c r="BB21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4451,13 +4451,13 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG22" t="n">
         <v>22</v>
@@ -4469,7 +4469,7 @@
         <v>24</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK22" t="n">
         <v>27</v>
@@ -4487,7 +4487,7 @@
         <v>29</v>
       </c>
       <c r="AP22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
         <v>23</v>
@@ -4496,13 +4496,13 @@
         <v>9</v>
       </c>
       <c r="AS22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV22" t="n">
         <v>18</v>
@@ -4520,13 +4520,13 @@
         <v>12</v>
       </c>
       <c r="BA22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB22" t="n">
         <v>30</v>
       </c>
       <c r="BC22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4633,13 +4633,13 @@
         <v>1.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>12</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
         <v>12</v>
@@ -4648,16 +4648,16 @@
         <v>9</v>
       </c>
       <c r="AI23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>21</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>20</v>
-      </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
@@ -4669,43 +4669,43 @@
         <v>14</v>
       </c>
       <c r="AP23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ23" t="n">
         <v>27</v>
       </c>
       <c r="AR23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV23" t="n">
         <v>20</v>
       </c>
       <c r="AW23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX23" t="n">
         <v>1</v>
       </c>
       <c r="AY23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ23" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB23" t="n">
         <v>17</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>19</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4821,7 +4821,7 @@
         <v>12</v>
       </c>
       <c r="AF24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG24" t="n">
         <v>16</v>
@@ -4833,13 +4833,13 @@
         <v>8</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
         <v>9</v>
       </c>
       <c r="AL24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>24</v>
@@ -4851,19 +4851,19 @@
         <v>18</v>
       </c>
       <c r="AP24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ24" t="n">
         <v>17</v>
       </c>
       <c r="AR24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="n">
         <v>18</v>
@@ -4875,7 +4875,7 @@
         <v>29</v>
       </c>
       <c r="AX24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY24" t="n">
         <v>11</v>
@@ -4890,7 +4890,7 @@
         <v>10</v>
       </c>
       <c r="BC24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -5036,7 +5036,7 @@
         <v>13</v>
       </c>
       <c r="AQ25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
         <v>29</v>
@@ -5051,10 +5051,10 @@
         <v>3</v>
       </c>
       <c r="AV25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
@@ -5063,16 +5063,16 @@
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5101,133 +5101,133 @@
         </is>
       </c>
       <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
         <v>3</v>
       </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
-      </c>
       <c r="G26" t="n">
-        <v>0.333</v>
+        <v>0.25</v>
       </c>
       <c r="H26" t="n">
         <v>48</v>
       </c>
       <c r="I26" t="n">
-        <v>35.7</v>
+        <v>34</v>
       </c>
       <c r="J26" t="n">
-        <v>78.7</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>0.453</v>
+        <v>0.425</v>
       </c>
       <c r="L26" t="n">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>19.3</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.431</v>
+        <v>0.427</v>
       </c>
       <c r="O26" t="n">
-        <v>17.7</v>
+        <v>15.3</v>
       </c>
       <c r="P26" t="n">
-        <v>21.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.772</v>
       </c>
       <c r="R26" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="S26" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>36</v>
+      </c>
+      <c r="U26" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z26" t="n">
         <v>21</v>
       </c>
-      <c r="T26" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="U26" t="n">
+      <c r="AA26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>92</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF26" t="n">
         <v>18</v>
       </c>
-      <c r="V26" t="n">
-        <v>11</v>
-      </c>
-      <c r="W26" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="X26" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>-5.7</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>12</v>
-      </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AH26" t="n">
         <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AL26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AP26" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AQ26" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AR26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AS26" t="n">
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AU26" t="n">
         <v>22</v>
@@ -5239,22 +5239,22 @@
         <v>9</v>
       </c>
       <c r="AX26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
         <v>29</v>
       </c>
       <c r="BB26" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="BC26" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5364,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF27" t="n">
         <v>29</v>
@@ -5376,10 +5376,10 @@
         <v>9</v>
       </c>
       <c r="AI27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK27" t="n">
         <v>6</v>
@@ -5388,19 +5388,19 @@
         <v>22</v>
       </c>
       <c r="AM27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN27" t="n">
         <v>24</v>
       </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP27" t="n">
         <v>24</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
         <v>27</v>
@@ -5409,13 +5409,13 @@
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU27" t="n">
         <v>10</v>
       </c>
       <c r="AV27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW27" t="n">
         <v>27</v>
@@ -5424,7 +5424,7 @@
         <v>22</v>
       </c>
       <c r="AY27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ27" t="n">
         <v>21</v>
@@ -5433,7 +5433,7 @@
         <v>21</v>
       </c>
       <c r="BB27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5543,13 +5543,13 @@
         <v>-4.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG28" t="n">
         <v>22</v>
@@ -5561,7 +5561,7 @@
         <v>3</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5573,28 +5573,28 @@
         <v>16</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT28" t="n">
         <v>24</v>
       </c>
       <c r="AU28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5606,7 +5606,7 @@
         <v>29</v>
       </c>
       <c r="AY28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ28" t="n">
         <v>11</v>
@@ -5618,7 +5618,7 @@
         <v>5</v>
       </c>
       <c r="BC28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5725,22 +5725,22 @@
         <v>3</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF29" t="n">
         <v>5</v>
       </c>
       <c r="AG29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH29" t="n">
         <v>4</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>28</v>
@@ -5752,7 +5752,7 @@
         <v>7</v>
       </c>
       <c r="AM29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="n">
         <v>1</v>
@@ -5773,7 +5773,7 @@
         <v>20</v>
       </c>
       <c r="AT29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5788,19 +5788,19 @@
         <v>12</v>
       </c>
       <c r="AY29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5907,7 +5907,7 @@
         <v>12.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>1</v>
@@ -5925,7 +5925,7 @@
         <v>6</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5946,16 +5946,16 @@
         <v>14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU30" t="n">
         <v>6</v>
@@ -5964,22 +5964,22 @@
         <v>5</v>
       </c>
       <c r="AW30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX30" t="n">
         <v>27</v>
       </c>
       <c r="AY30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA30" t="n">
         <v>8</v>
       </c>
-      <c r="BA30" t="n">
-        <v>7</v>
-      </c>
       <c r="BB30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
         <v>2</v>
@@ -6089,13 +6089,13 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6104,19 +6104,19 @@
         <v>3</v>
       </c>
       <c r="AI31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>19</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>18</v>
-      </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
         <v>28</v>
       </c>
       <c r="AM31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN31" t="n">
         <v>29</v>
@@ -6125,7 +6125,7 @@
         <v>2</v>
       </c>
       <c r="AP31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ31" t="n">
         <v>21</v>
@@ -6140,10 +6140,10 @@
         <v>27</v>
       </c>
       <c r="AU31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW31" t="n">
         <v>17</v>
@@ -6158,13 +6158,13 @@
         <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB31" t="n">
         <v>9</v>
       </c>
       <c r="BC31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>

--- a/Team-Data/2008-09/11-6-2008-09.xlsx
+++ b/Team-Data/2008-09/11-6-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
         <v>1</v>
@@ -756,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>9</v>
@@ -768,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
         <v>30</v>
@@ -789,28 +856,28 @@
         <v>2</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AT2" t="n">
         <v>4</v>
       </c>
       <c r="AU2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW2" t="n">
         <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -848,97 +915,97 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="J3" t="n">
-        <v>77.8</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M3" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.281</v>
+        <v>0.268</v>
       </c>
       <c r="O3" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="P3" t="n">
-        <v>31</v>
+        <v>31.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R3" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="S3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T3" t="n">
-        <v>49</v>
+        <v>46.4</v>
       </c>
       <c r="U3" t="n">
-        <v>19</v>
+        <v>18.4</v>
       </c>
       <c r="V3" t="n">
-        <v>18.8</v>
+        <v>18.4</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.8</v>
+        <v>24.6</v>
       </c>
       <c r="AA3" t="n">
         <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.5</v>
+        <v>92.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>5</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -947,61 +1014,61 @@
         <v>22</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR3" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT3" t="n">
         <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -1108,22 +1175,22 @@
         <v>-6.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>30</v>
@@ -1144,10 +1211,10 @@
         <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR4" t="n">
         <v>7</v>
@@ -1159,13 +1226,13 @@
         <v>24</v>
       </c>
       <c r="AU4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="n">
         <v>25</v>
@@ -1174,16 +1241,16 @@
         <v>25</v>
       </c>
       <c r="AZ4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>27</v>
       </c>
       <c r="BC4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -1212,160 +1279,160 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>31.5</v>
+        <v>32.2</v>
       </c>
       <c r="J5" t="n">
-        <v>83.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.378</v>
+        <v>0.4</v>
       </c>
       <c r="L5" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.377</v>
+        <v>0.384</v>
       </c>
       <c r="O5" t="n">
-        <v>21.8</v>
+        <v>24</v>
       </c>
       <c r="P5" t="n">
-        <v>26.3</v>
+        <v>29.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.829</v>
+        <v>0.805</v>
       </c>
       <c r="R5" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="S5" t="n">
-        <v>31.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>44</v>
+        <v>43.2</v>
       </c>
       <c r="U5" t="n">
-        <v>16</v>
+        <v>18.2</v>
       </c>
       <c r="V5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>24.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>90.5</v>
+        <v>94</v>
       </c>
       <c r="AC5" t="n">
-        <v>-5.8</v>
+        <v>-2</v>
       </c>
       <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH5" t="n">
         <v>9</v>
       </c>
-      <c r="AE5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>11</v>
-      </c>
       <c r="AI5" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
         <v>9</v>
       </c>
       <c r="AO5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP5" t="n">
         <v>7</v>
       </c>
-      <c r="AP5" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT5" t="n">
         <v>11</v>
       </c>
-      <c r="AT5" t="n">
-        <v>8</v>
-      </c>
       <c r="AU5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BA5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -1394,160 +1461,160 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>35.8</v>
+        <v>34.4</v>
       </c>
       <c r="J6" t="n">
-        <v>77</v>
+        <v>75.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.464</v>
+        <v>0.457</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="M6" t="n">
-        <v>18.3</v>
+        <v>17.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.356</v>
+        <v>0.33</v>
       </c>
       <c r="O6" t="n">
-        <v>20.8</v>
+        <v>21.4</v>
       </c>
       <c r="P6" t="n">
-        <v>28.3</v>
+        <v>29.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R6" t="n">
-        <v>12.3</v>
+        <v>11.4</v>
       </c>
       <c r="S6" t="n">
         <v>32.8</v>
       </c>
       <c r="T6" t="n">
-        <v>45</v>
+        <v>44.2</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.2</v>
       </c>
       <c r="V6" t="n">
-        <v>14.3</v>
+        <v>15.8</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.5</v>
+        <v>23.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>22.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>98.8</v>
+        <v>96</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>6.6</v>
       </c>
       <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH6" t="n">
         <v>9</v>
       </c>
-      <c r="AE6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK6" t="n">
         <v>11</v>
       </c>
-      <c r="AI6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="n">
         <v>8</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>7</v>
       </c>
       <c r="AQ6" t="n">
         <v>20</v>
       </c>
       <c r="AR6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX6" t="n">
         <v>14</v>
       </c>
-      <c r="AS6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>3</v>
-      </c>
       <c r="AY6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BC6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -1654,22 +1721,22 @@
         <v>-0.5</v>
       </c>
       <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH7" t="n">
         <v>9</v>
       </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>11</v>
-      </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
         <v>16</v>
@@ -1678,7 +1745,7 @@
         <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
         <v>16</v>
@@ -1687,25 +1754,25 @@
         <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
         <v>25</v>
       </c>
       <c r="AQ7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR7" t="n">
         <v>24</v>
       </c>
       <c r="AS7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT7" t="n">
         <v>20</v>
       </c>
       <c r="AU7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV7" t="n">
         <v>2</v>
@@ -1726,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>-2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>20</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
         <v>22</v>
@@ -1851,10 +1918,10 @@
         <v>4</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>12</v>
@@ -1866,10 +1933,10 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP8" t="n">
         <v>4</v>
@@ -1881,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>5</v>
@@ -1896,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY8" t="n">
         <v>28</v>
@@ -1905,13 +1972,13 @@
         <v>28</v>
       </c>
       <c r="BA8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB8" t="n">
         <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -2018,19 +2085,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="n">
         <v>9</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>11</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2048,19 +2115,19 @@
         <v>25</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ9" t="n">
         <v>3</v>
       </c>
       <c r="AR9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
         <v>19</v>
@@ -2078,7 +2145,7 @@
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-0.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>9</v>
@@ -2224,7 +2291,7 @@
         <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM10" t="n">
         <v>4</v>
@@ -2233,13 +2300,13 @@
         <v>22</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
         <v>5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>1</v>
@@ -2248,19 +2315,19 @@
         <v>23</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -2304,64 +2371,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="H11" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" t="n">
-        <v>79.40000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.416</v>
+        <v>0.401</v>
       </c>
       <c r="L11" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M11" t="n">
-        <v>17.4</v>
+        <v>18.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.356</v>
+        <v>0.333</v>
       </c>
       <c r="O11" t="n">
-        <v>24</v>
+        <v>25.3</v>
       </c>
       <c r="P11" t="n">
-        <v>27.8</v>
+        <v>29</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.863</v>
+        <v>0.871</v>
       </c>
       <c r="R11" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="S11" t="n">
-        <v>33.2</v>
+        <v>33.8</v>
       </c>
       <c r="T11" t="n">
-        <v>43</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>18.2</v>
+        <v>17.5</v>
       </c>
       <c r="V11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W11" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="X11" t="n">
         <v>2</v>
@@ -2370,94 +2437,94 @@
         <v>6</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA11" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.2</v>
+        <v>95.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN11" t="n">
         <v>13</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>11</v>
       </c>
       <c r="AO11" t="n">
         <v>3</v>
       </c>
       <c r="AP11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AS11" t="n">
         <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AV11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -2564,52 +2631,52 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
       </c>
       <c r="AF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL12" t="n">
         <v>11</v>
       </c>
-      <c r="AG12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AM12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN12" t="n">
         <v>16</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AO12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP12" t="n">
         <v>12</v>
       </c>
-      <c r="AM12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>11</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR12" t="n">
         <v>26</v>
       </c>
       <c r="AS12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT12" t="n">
         <v>19</v>
@@ -2618,13 +2685,13 @@
         <v>24</v>
       </c>
       <c r="AV12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY12" t="n">
         <v>30</v>
@@ -2633,10 +2700,10 @@
         <v>25</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC12" t="n">
         <v>15</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-20.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>29</v>
@@ -2758,28 +2825,28 @@
         <v>29</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
         <v>28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN13" t="n">
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
@@ -2788,13 +2855,13 @@
         <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS13" t="n">
         <v>21</v>
       </c>
       <c r="AT13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU13" t="n">
         <v>25</v>
@@ -2806,10 +2873,10 @@
         <v>23</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -2850,10 +2917,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2865,113 +2932,113 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="J14" t="n">
-        <v>84</v>
+        <v>82.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.425</v>
+        <v>0.435</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="M14" t="n">
-        <v>19.3</v>
+        <v>17</v>
       </c>
       <c r="N14" t="n">
-        <v>0.414</v>
+        <v>0.456</v>
       </c>
       <c r="O14" t="n">
-        <v>29.7</v>
+        <v>26</v>
       </c>
       <c r="P14" t="n">
-        <v>40.3</v>
+        <v>34.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.736</v>
+        <v>0.748</v>
       </c>
       <c r="R14" t="n">
-        <v>14.7</v>
+        <v>13.3</v>
       </c>
       <c r="S14" t="n">
-        <v>38</v>
+        <v>38.5</v>
       </c>
       <c r="T14" t="n">
-        <v>52.7</v>
+        <v>51.8</v>
       </c>
       <c r="U14" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="V14" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="X14" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="n">
         <v>9</v>
       </c>
-      <c r="X14" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>109</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>11</v>
-      </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>6</v>
       </c>
       <c r="AK14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM14" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR14" t="n">
         <v>6</v>
       </c>
-      <c r="AO14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>4</v>
-      </c>
       <c r="AS14" t="n">
         <v>1</v>
       </c>
@@ -2979,28 +3046,28 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV14" t="n">
         <v>15</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -3110,25 +3177,25 @@
         <v>-2.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>28</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK15" t="n">
         <v>24</v>
@@ -3143,10 +3210,10 @@
         <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
@@ -3155,25 +3222,25 @@
         <v>17</v>
       </c>
       <c r="AS15" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
       </c>
       <c r="AV15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX15" t="n">
         <v>19</v>
       </c>
-      <c r="AW15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>21</v>
-      </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>16</v>
@@ -3185,7 +3252,7 @@
         <v>28</v>
       </c>
       <c r="BC15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -3292,46 +3359,46 @@
         <v>7.8</v>
       </c>
       <c r="AD16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH16" t="n">
         <v>9</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>11</v>
       </c>
       <c r="AI16" t="n">
         <v>6</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AK16" t="n">
         <v>10</v>
       </c>
       <c r="AL16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
         <v>6</v>
       </c>
       <c r="AQ16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3352,22 +3419,22 @@
         <v>1</v>
       </c>
       <c r="AX16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY16" t="n">
         <v>2</v>
       </c>
       <c r="AZ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB16" t="n">
         <v>4</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -3396,97 +3463,97 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="H17" t="n">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="I17" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.462</v>
+        <v>0.464</v>
       </c>
       <c r="L17" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.322</v>
+        <v>0.342</v>
       </c>
       <c r="O17" t="n">
-        <v>17</v>
+        <v>16.6</v>
       </c>
       <c r="P17" t="n">
-        <v>25.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.673</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="R17" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="S17" t="n">
-        <v>32.5</v>
+        <v>29.8</v>
       </c>
       <c r="T17" t="n">
-        <v>43.8</v>
+        <v>41.4</v>
       </c>
       <c r="U17" t="n">
-        <v>24.8</v>
+        <v>24</v>
       </c>
       <c r="V17" t="n">
-        <v>17</v>
+        <v>17.4</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.5</v>
+        <v>25.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.8</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.8</v>
+        <v>97.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH17" t="n">
         <v>6</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>4</v>
       </c>
       <c r="AI17" t="n">
         <v>5</v>
@@ -3495,61 +3562,61 @@
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
         <v>25</v>
       </c>
       <c r="AP17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ17" t="n">
         <v>28</v>
       </c>
       <c r="AR17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS17" t="n">
         <v>18</v>
       </c>
-      <c r="AS17" t="n">
-        <v>8</v>
-      </c>
       <c r="AT17" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AU17" t="n">
         <v>1</v>
       </c>
       <c r="AV17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX17" t="n">
         <v>24</v>
       </c>
-      <c r="AW17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>22</v>
-      </c>
       <c r="AY17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ17" t="n">
         <v>27</v>
       </c>
       <c r="BA17" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BB17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC17" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-3.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>20</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
         <v>22</v>
@@ -3677,7 +3744,7 @@
         <v>2</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
         <v>27</v>
@@ -3686,31 +3753,31 @@
         <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AT18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU18" t="n">
         <v>2</v>
       </c>
       <c r="AV18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3719,7 +3786,7 @@
         <v>12</v>
       </c>
       <c r="AY18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ18" t="n">
         <v>17</v>
@@ -3731,7 +3798,7 @@
         <v>12</v>
       </c>
       <c r="BC18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -3838,46 +3905,46 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP19" t="n">
         <v>19</v>
       </c>
-      <c r="AO19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR19" t="n">
         <v>19</v>
@@ -3892,10 +3959,10 @@
         <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX19" t="n">
         <v>2</v>
@@ -3913,7 +3980,7 @@
         <v>25</v>
       </c>
       <c r="BC19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -4020,31 +4087,31 @@
         <v>5.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK20" t="n">
         <v>7</v>
       </c>
       <c r="AL20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM20" t="n">
         <v>10</v>
@@ -4053,13 +4120,13 @@
         <v>2</v>
       </c>
       <c r="AO20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP20" t="n">
         <v>15</v>
       </c>
-      <c r="AP20" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
         <v>24</v>
@@ -4068,7 +4135,7 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU20" t="n">
         <v>7</v>
@@ -4077,19 +4144,19 @@
         <v>11</v>
       </c>
       <c r="AW20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>5</v>
       </c>
-      <c r="AX20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>4</v>
-      </c>
       <c r="BA20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB20" t="n">
         <v>8</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -4202,28 +4269,28 @@
         <v>-7.3</v>
       </c>
       <c r="AD21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH21" t="n">
         <v>9</v>
       </c>
-      <c r="AE21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>11</v>
-      </c>
       <c r="AI21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ21" t="n">
         <v>3</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,31 +4299,31 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS21" t="n">
         <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW21" t="n">
         <v>2</v>
@@ -4268,7 +4335,7 @@
         <v>4</v>
       </c>
       <c r="AZ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA21" t="n">
         <v>28</v>
@@ -4277,7 +4344,7 @@
         <v>11</v>
       </c>
       <c r="BC21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -4384,28 +4451,28 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>20</v>
       </c>
       <c r="AF22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG22" t="n">
         <v>22</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
         <v>24</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AK22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL22" t="n">
         <v>29</v>
@@ -4414,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="n">
         <v>29</v>
@@ -4426,22 +4493,22 @@
         <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AV22" t="n">
         <v>18</v>
       </c>
-      <c r="AT22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>19</v>
-      </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX22" t="n">
         <v>15</v>
@@ -4450,16 +4517,16 @@
         <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB22" t="n">
         <v>30</v>
       </c>
       <c r="BC22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -4488,139 +4555,139 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="J23" t="n">
-        <v>79.59999999999999</v>
+        <v>79</v>
       </c>
       <c r="K23" t="n">
-        <v>0.44</v>
+        <v>0.437</v>
       </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="M23" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.313</v>
+        <v>0.301</v>
       </c>
       <c r="O23" t="n">
-        <v>18.8</v>
+        <v>19.8</v>
       </c>
       <c r="P23" t="n">
-        <v>28.2</v>
+        <v>28.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.667</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="R23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>31</v>
       </c>
       <c r="T23" t="n">
-        <v>44.8</v>
+        <v>44.5</v>
       </c>
       <c r="U23" t="n">
-        <v>17.6</v>
+        <v>16.8</v>
       </c>
       <c r="V23" t="n">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
       <c r="W23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="X23" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.8</v>
+        <v>22.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>23.2</v>
+        <v>24</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AF23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
         <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
         <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT23" t="n">
         <v>7</v>
       </c>
       <c r="AU23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AV23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
         <v>9</v>
@@ -4629,19 +4696,19 @@
         <v>1</v>
       </c>
       <c r="AY23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB23" t="n">
         <v>17</v>
       </c>
-      <c r="AZ23" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>19</v>
-      </c>
       <c r="BC23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -4670,160 +4737,160 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>37.3</v>
+        <v>37.6</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5</v>
+        <v>81.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.447</v>
+        <v>0.463</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M24" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.384</v>
+        <v>0.406</v>
       </c>
       <c r="O24" t="n">
-        <v>17.2</v>
+        <v>18.4</v>
       </c>
       <c r="P24" t="n">
-        <v>22.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.763</v>
+        <v>0.754</v>
       </c>
       <c r="R24" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="S24" t="n">
-        <v>34.7</v>
+        <v>34.2</v>
       </c>
       <c r="T24" t="n">
-        <v>49.7</v>
+        <v>48.8</v>
       </c>
       <c r="U24" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="V24" t="n">
-        <v>18.3</v>
+        <v>19.2</v>
       </c>
       <c r="W24" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X24" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.2</v>
+        <v>17.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>18.3</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.3</v>
+        <v>99.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF24" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI24" t="n">
         <v>8</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AL24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN24" t="n">
         <v>8</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AQ24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT24" t="n">
         <v>2</v>
       </c>
       <c r="AU24" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AV24" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AW24" t="n">
         <v>29</v>
       </c>
       <c r="AX24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ24" t="n">
         <v>1</v>
       </c>
       <c r="BA24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB24" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BC24" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>1</v>
@@ -4942,7 +5009,7 @@
         <v>5</v>
       </c>
       <c r="AH25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
@@ -4960,16 +5027,16 @@
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
         <v>13</v>
       </c>
       <c r="AQ25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
         <v>29</v>
@@ -4984,7 +5051,7 @@
         <v>3</v>
       </c>
       <c r="AV25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW25" t="n">
         <v>21</v>
@@ -4996,16 +5063,16 @@
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -5037,157 +5104,157 @@
         <v>4</v>
       </c>
       <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H26" t="n">
+        <v>48</v>
+      </c>
+      <c r="I26" t="n">
+        <v>34</v>
+      </c>
+      <c r="J26" t="n">
+        <v>80</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="M26" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="O26" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="R26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>36</v>
+      </c>
+      <c r="U26" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>92</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL26" t="n">
         <v>2</v>
       </c>
-      <c r="F26" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="I26" t="n">
-        <v>37</v>
-      </c>
-      <c r="J26" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="L26" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="M26" t="n">
-        <v>19</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.408</v>
-      </c>
-      <c r="O26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="P26" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="R26" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="T26" t="n">
-        <v>37</v>
-      </c>
-      <c r="U26" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="V26" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="W26" t="n">
-        <v>7</v>
-      </c>
-      <c r="X26" t="n">
+      <c r="AM26" t="n">
         <v>5</v>
       </c>
-      <c r="Y26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="AD26" t="n">
+      <c r="AN26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR26" t="n">
         <v>9</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>6</v>
       </c>
       <c r="AS26" t="n">
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU26" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AV26" t="n">
         <v>3</v>
       </c>
       <c r="AW26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX26" t="n">
         <v>21</v>
       </c>
-      <c r="AX26" t="n">
-        <v>18</v>
-      </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB26" t="n">
         <v>26</v>
       </c>
-      <c r="BB26" t="n">
-        <v>12</v>
-      </c>
       <c r="BC26" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -5294,25 +5361,25 @@
         <v>-15</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>20</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG27" t="n">
         <v>28</v>
       </c>
       <c r="AH27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
         <v>15</v>
       </c>
       <c r="AJ27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK27" t="n">
         <v>6</v>
@@ -5321,19 +5388,19 @@
         <v>22</v>
       </c>
       <c r="AM27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN27" t="n">
         <v>24</v>
       </c>
       <c r="AO27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP27" t="n">
         <v>24</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
         <v>27</v>
@@ -5357,16 +5424,16 @@
         <v>22</v>
       </c>
       <c r="AY27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA27" t="n">
         <v>21</v>
       </c>
       <c r="BB27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -5476,13 +5543,13 @@
         <v>-4.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>20</v>
       </c>
       <c r="AF28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG28" t="n">
         <v>22</v>
@@ -5494,7 +5561,7 @@
         <v>3</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5506,28 +5573,28 @@
         <v>16</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP28" t="n">
         <v>26</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT28" t="n">
         <v>24</v>
       </c>
       <c r="AU28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5539,7 +5606,7 @@
         <v>29</v>
       </c>
       <c r="AY28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ28" t="n">
         <v>11</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5725,22 @@
         <v>3</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF29" t="n">
         <v>5</v>
       </c>
       <c r="AG29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH29" t="n">
         <v>4</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>28</v>
@@ -5685,7 +5752,7 @@
         <v>7</v>
       </c>
       <c r="AM29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="n">
         <v>1</v>
@@ -5694,7 +5761,7 @@
         <v>12</v>
       </c>
       <c r="AP29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
@@ -5721,16 +5788,16 @@
         <v>12</v>
       </c>
       <c r="AY29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -5840,19 +5907,19 @@
         <v>12.3</v>
       </c>
       <c r="AD30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="n">
         <v>9</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>11</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5879,40 +5946,40 @@
         <v>14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU30" t="n">
         <v>6</v>
       </c>
       <c r="AV30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX30" t="n">
         <v>27</v>
       </c>
       <c r="AY30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA30" t="n">
         <v>8</v>
       </c>
-      <c r="BA30" t="n">
-        <v>6</v>
-      </c>
       <c r="BB30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6037,19 +6104,19 @@
         <v>3</v>
       </c>
       <c r="AI31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>19</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>20</v>
-      </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
         <v>28</v>
       </c>
       <c r="AM31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN31" t="n">
         <v>29</v>
@@ -6058,28 +6125,28 @@
         <v>2</v>
       </c>
       <c r="AP31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ31" t="n">
         <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS31" t="n">
         <v>28</v>
       </c>
       <c r="AT31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AV31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX31" t="n">
         <v>22</v>
@@ -6088,16 +6155,16 @@
         <v>29</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB31" t="n">
         <v>9</v>
       </c>
       <c r="BC31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-6-2008-09</t>
+          <t>2008-11-06</t>
         </is>
       </c>
     </row>
